--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-581016.9440167149</v>
+        <v>-583529.3523980795</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612768</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>141.5291223298312</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -792,10 +792,10 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969284</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>124.3077666112906</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.03075203849455</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>84.42672630883098</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>239.3447361355281</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>24.26938334575232</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>131.5522128412692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>39.49952882990231</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>293.2392394028592</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>22.68352231439616</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>57.20301860592738</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>98.54405836271891</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016435</v>
       </c>
       <c r="T13" t="n">
-        <v>64.91921363453612</v>
+        <v>22.54881804343308</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>120.8326485140796</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.8829459347365</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>63.34420421319493</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>38.05096575280677</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>139.593005428874</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>69.82863813027329</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454149</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569567</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703275</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>60.11729550773704</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812095</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>164.9367233701402</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>147.6895341487373</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308931</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652564</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352489</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139987</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2466.057311715915</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.917979740103</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.1368827450977</v>
+        <v>2769.260665217898</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1368827450977</v>
+        <v>2769.260665217898</v>
       </c>
       <c r="D4" t="n">
-        <v>69.57348212763245</v>
+        <v>2619.144025805562</v>
       </c>
       <c r="E4" t="n">
-        <v>69.57348212763245</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F4" t="n">
-        <v>69.57348212763245</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G4" t="n">
-        <v>69.57348212763245</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W4" t="n">
-        <v>376.7853475753374</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="X4" t="n">
-        <v>376.7853475753374</v>
+        <v>2950.909130048138</v>
       </c>
       <c r="Y4" t="n">
-        <v>376.7853475753374</v>
+        <v>2950.909130048138</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1832.276849100054</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1463.314332159642</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1105.048633552892</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>719.2603809546476</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>308.2744761650401</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2400.229512818681</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2026.763754557601</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y5" t="n">
-        <v>1636.624422581789</v>
+        <v>2218.876689164176</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.4459618444151</v>
+        <v>349.9534943655786</v>
       </c>
       <c r="C7" t="n">
-        <v>349.5097789165083</v>
+        <v>349.9534943655786</v>
       </c>
       <c r="D7" t="n">
-        <v>199.3931395041725</v>
+        <v>349.9534943655786</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>349.9534943655786</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>349.9534943655786</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>349.9534943655786</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>349.9534943655786</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746549</v>
+        <v>349.9534943655786</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2028.499588324621</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="C8" t="n">
-        <v>1659.53707138421</v>
+        <v>1914.140475048883</v>
       </c>
       <c r="D8" t="n">
-        <v>1301.271372777459</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>915.4831201792149</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>504.4972153896073</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>89.4247652346038</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2788.565186649823</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>2415.099428388743</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2415.099428388743</v>
+        <v>2283.102991989294</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.2446860521933</v>
+        <v>438.2129667142808</v>
       </c>
       <c r="C10" t="n">
-        <v>532.2446860521933</v>
+        <v>438.2129667142808</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398576</v>
+        <v>438.2129667142808</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4993,19 +4993,19 @@
         <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>532.2446860521933</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W10" t="n">
-        <v>532.2446860521933</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X10" t="n">
-        <v>532.2446860521933</v>
+        <v>438.2129667142808</v>
       </c>
       <c r="Y10" t="n">
-        <v>532.2446860521933</v>
+        <v>438.2129667142808</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2131.487582220359</v>
+        <v>2174.285961605313</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038259</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797661</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910801</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570809</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580252</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832655</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832655</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832655</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176853</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970966</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934005</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035988</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5516,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851662</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253734</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5701,22 +5701,22 @@
         <v>2379.917379832662</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855603</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199801</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993914</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956953</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058936</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.356899915406</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5835,16 +5835,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,58 +6206,58 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2376.429105670894</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2156.827640693835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1867.752414038033</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1613.067925832146</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1323.650755795185</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1095.661204897168</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>874.8686257536381</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6449,43 +6449,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.195150674524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121652</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6716,16 +6716,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474785</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186992</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6950,16 +6950,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578601</v>
@@ -7090,7 +7090,7 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J39" t="n">
-        <v>120.6800663848328</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>454.6048385560535</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L39" t="n">
-        <v>949.9304447718124</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319339</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656833</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150039</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942671</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532433</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594057</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
@@ -7576,19 +7576,19 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,10 +7600,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7734,10 +7734,10 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,10 +7801,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7837,10 +7837,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>255.180547410985</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>228.2019783486379</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,13 +22708,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24.30770640692175</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>28.44582534965653</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>141.2829290802062</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>152.4862366927521</v>
+        <v>194.8566322838552</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>104.8770068749576</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.70170741735825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>103.9026168854329</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>179.3544845744815</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>40.2389747530633</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>111.1976478713713</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>180.5336875992865</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>226.0671788815071</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.5874149221286018</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758986</v>
+        <v>229059.6437758985</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058921</v>
@@ -26323,13 +26323,13 @@
         <v>262322.644899252</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
         <v>262322.644899252</v>
@@ -26338,10 +26338,10 @@
         <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
         <v>262322.6448992519</v>
@@ -26350,7 +26350,7 @@
         <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058925</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058923</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.536993168992922e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972779</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363205</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27249.14345670403</v>
+        <v>27249.14345670391</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189184</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26439,25 +26439,25 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189191</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.44323498539</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498544</v>
       </c>
     </row>
     <row r="5">
@@ -26491,10 +26491,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1234868.185969791</v>
+        <v>-1235158.793134637</v>
       </c>
       <c r="C6" t="n">
-        <v>65307.89054044633</v>
+        <v>65307.89054044631</v>
       </c>
       <c r="D6" t="n">
-        <v>65307.8905404463</v>
+        <v>65307.89054044636</v>
       </c>
       <c r="E6" t="n">
-        <v>-180258.9307039022</v>
+        <v>-180293.6686293379</v>
       </c>
       <c r="F6" t="n">
-        <v>145153.531103453</v>
+        <v>145118.7931780172</v>
       </c>
       <c r="G6" t="n">
-        <v>145153.5311034528</v>
+        <v>145118.7931780172</v>
       </c>
       <c r="H6" t="n">
-        <v>145153.5311034528</v>
+        <v>145118.7931780172</v>
       </c>
       <c r="I6" t="n">
-        <v>145153.5311034529</v>
+        <v>145118.7931780172</v>
       </c>
       <c r="J6" t="n">
-        <v>-72377.67129382509</v>
+        <v>-72412.4092192605</v>
       </c>
       <c r="K6" t="n">
-        <v>145153.531103453</v>
+        <v>145118.7931780171</v>
       </c>
       <c r="L6" t="n">
-        <v>145153.5311034529</v>
+        <v>145118.7931780171</v>
       </c>
       <c r="M6" t="n">
-        <v>60098.50316794115</v>
+        <v>60063.76524250544</v>
       </c>
       <c r="N6" t="n">
-        <v>120209.2981233598</v>
+        <v>120209.2981233596</v>
       </c>
       <c r="O6" t="n">
+        <v>139637.0161169919</v>
+      </c>
+      <c r="P6" t="n">
         <v>139637.0161169914</v>
-      </c>
-      <c r="P6" t="n">
-        <v>139637.0161169917</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26790,7 +26790,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="V3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>116.9752226732747</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>141.7242628758262</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27594,13 +27594,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>171.5769895179253</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>324.9715853716607</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>14.88174980529999</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>126.5262794291259</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>61.44380221782376</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>271.9242420729243</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>89.23094404064179</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28065,16 +28065,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>153.5935849611091</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-6.583152562407999e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-1.304606959804738e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-5.704287579631277e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832328</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32555,19 +32555,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,31 +33026,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982882</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,37 +33494,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>362.893409218435</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,34 +33734,34 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663284</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>152.1871379112058</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422587</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998996</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096265</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306624</v>
+        <v>295.6317733066241</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>302.0934576762699</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>224.3390294385608</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
         <v>285.7087110396421</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>25.34951124453913</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678997</v>
@@ -37628,16 +37628,16 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
